--- a/results/mp/deberta/corona/confidence/42/stop-words-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/42/stop-words-0.5/avg_0.004_scores.xlsx
@@ -94,37 +94,37 @@
     <t>positive</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
     <t>safety</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>hand</t>
   </si>
   <si>
     <t>hope</t>
@@ -1132,13 +1132,13 @@
         <v>26</v>
       </c>
       <c r="K16">
-        <v>0.6550218340611353</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="L16">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="M16">
-        <v>160</v>
+        <v>32</v>
       </c>
       <c r="N16">
         <v>0.9399999999999999</v>
@@ -1150,7 +1150,7 @@
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1158,25 +1158,25 @@
         <v>27</v>
       </c>
       <c r="K17">
-        <v>0.6521739130434783</v>
+        <v>0.6453900709219859</v>
       </c>
       <c r="L17">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="M17">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="N17">
-        <v>0.9399999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="O17">
-        <v>0.06000000000000005</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P17" t="b">
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1184,25 +1184,25 @@
         <v>28</v>
       </c>
       <c r="K18">
-        <v>0.6453900709219859</v>
+        <v>0.64</v>
       </c>
       <c r="L18">
-        <v>91</v>
+        <v>32</v>
       </c>
       <c r="M18">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="N18">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>50</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1213,22 +1213,22 @@
         <v>0.64</v>
       </c>
       <c r="L19">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="M19">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="N19">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1236,25 +1236,25 @@
         <v>30</v>
       </c>
       <c r="K20">
-        <v>0.64</v>
+        <v>0.6276150627615062</v>
       </c>
       <c r="L20">
-        <v>64</v>
+        <v>150</v>
       </c>
       <c r="M20">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="N20">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>36</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1314,25 +1314,25 @@
         <v>33</v>
       </c>
       <c r="K23">
-        <v>0.5396341463414634</v>
+        <v>0.5365853658536586</v>
       </c>
       <c r="L23">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="M23">
-        <v>189</v>
+        <v>162</v>
       </c>
       <c r="N23">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="O23">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P23" t="b">
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>151</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1340,25 +1340,25 @@
         <v>34</v>
       </c>
       <c r="K24">
-        <v>0.5365853658536586</v>
+        <v>0.5287356321839081</v>
       </c>
       <c r="L24">
-        <v>154</v>
+        <v>46</v>
       </c>
       <c r="M24">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="N24">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="O24">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P24" t="b">
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>133</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1366,25 +1366,25 @@
         <v>35</v>
       </c>
       <c r="K25">
-        <v>0.5287356321839081</v>
+        <v>0.5235602094240838</v>
       </c>
       <c r="L25">
-        <v>46</v>
+        <v>200</v>
       </c>
       <c r="M25">
-        <v>48</v>
+        <v>201</v>
       </c>
       <c r="N25">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>41</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1392,13 +1392,13 @@
         <v>36</v>
       </c>
       <c r="K26">
-        <v>0.5235602094240838</v>
+        <v>0.5205882352941177</v>
       </c>
       <c r="L26">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="M26">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1407,10 +1407,10 @@
         <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>182</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="10:17">
